--- a/Mifos Automation Excels/Loan Product/2389-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-WaiveInterest-DLR-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2389-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-WaiveInterest-DLR-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>productname</t>
   </si>
@@ -233,19 +233,10 @@
     <t>frequencydateforrecalculation</t>
   </si>
   <si>
-    <t>overduecharges</t>
-  </si>
-  <si>
-    <t>addoverduecharges</t>
-  </si>
-  <si>
     <t>Differential Lending Rate</t>
   </si>
   <si>
     <t>2389-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-WaiveInterest-DLR</t>
-  </si>
-  <si>
-    <t>OveerdueFees-%LoanAmount+Interest</t>
   </si>
 </sst>
 </file>
@@ -644,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -661,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -749,7 +740,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -936,123 +927,107 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>20</v>
+      <c r="A37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>20</v>
+      <c r="A38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1081,7 +1056,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
